--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2798606.171431106</v>
+        <v>2791589.156539395</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -709,13 +709,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>281.1647116733691</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>48.91401559658166</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>47.36189168600521</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>16.22208425994155</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -946,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>300.6519927978977</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,22 +1062,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>113.6279829050372</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>258.0864413124729</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>96.36163317610351</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>92.00803688215807</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.6400721734892</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.5141196058424</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.15603929387859</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>192.6186303828515</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784684</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>89.38210601525124</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.0660935243187</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>144.4797853959761</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113168</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2608,10 +2608,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2769,16 +2769,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>145.8998232290805</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>93.19229079446495</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>204.8933671487637</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>176.8688121773846</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3477,7 +3477,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750046</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498003</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>86.18768101996842</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>119.088167246258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>174.2058680856186</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.22927301144486</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.9955446623092</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
         <v>1749.341643278937</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.480975254749</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1345.301239238533</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>550.9896214861826</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2084.669734572769</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1731.901079302655</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1731.901079302655</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1731.901079302655</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.0450565669176</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>386.0450565669176</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>386.0450565669176</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>386.0450565669176</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.0450565669176</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1448.521729839487</v>
+        <v>1689.203741822953</v>
       </c>
       <c r="C8" t="n">
-        <v>1079.559212899076</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>721.2935142923252</v>
+        <v>961.9755262757906</v>
       </c>
       <c r="E8" t="n">
-        <v>335.505261694081</v>
+        <v>576.1872736775463</v>
       </c>
       <c r="F8" t="n">
-        <v>328.5597609448775</v>
+        <v>165.2013688879387</v>
       </c>
       <c r="G8" t="n">
-        <v>314.6363568834684</v>
+        <v>151.2779648265296</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>151.2779648265296</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1448.521729839487</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>578.0123447940986</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>430.0992512117055</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>283.2093037137951</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>717.3814365564451</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>717.3814365564451</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>717.3814365564451</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>717.3814365564451</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>717.3814365564451</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>717.3814365564451</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>717.3814365564451</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>489.3918856584278</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5123,10 +5123,10 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M12" t="n">
         <v>1332.091733170013</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>844.1942894808744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5205,46 +5205,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799402</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947123</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974671</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980067</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1388.295947723722</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1388.295947723722</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1388.295947723722</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1388.295947723722</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.611459517835</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>844.1942894808744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>844.1942894808744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>844.1942894808744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5272,19 +5272,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>385.5899330013836</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3177.42741301205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1080.566582233417</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>791.1494121964562</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3865.266479913453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3696.330296985546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3696.330296985546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4093.25603081147</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4093.25603081147</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3865.266479913453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3865.266479913453</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,13 +6025,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>355.2830904386603</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>355.2830904386603</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>355.2830904386603</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>355.2830904386603</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>355.2830904386603</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>355.2830904386603</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W25" t="n">
-        <v>985.7136853104475</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X25" t="n">
-        <v>757.7241344124302</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>536.9315552689001</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805459</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,10 +6229,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6256,7 +6256,7 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6305,13 +6305,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
         <v>1514.038914395485</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4178.700485463924</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4178.700485463924</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>3889.283315426963</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,16 +6442,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6466,10 +6466,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>488.658674475369</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>709.4512536188992</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>709.4512536188992</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>709.4512536188992</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>488.658674475369</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6782,22 +6782,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>843.1711433963917</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1291.953273437939</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1291.953273437939</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1291.953273437939</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W34" t="n">
-        <v>1291.953273437939</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X34" t="n">
-        <v>1063.963722539922</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>843.1711433963917</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7019,22 +7019,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1966.019627967826</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2486.320249703573</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4520.375241843982</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4231.24660305754</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>3976.562114851653</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>3687.144944814692</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,16 +7162,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7183,22 +7183,22 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231263</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>2958.820886056258</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M39" t="n">
-        <v>3266.141019336219</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>4070.55259760037</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>4350.092662819067</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>4555.115143601277</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4850.224560916991</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>523.8169520164281</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C40" t="n">
-        <v>523.8169520164281</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>898.7925182488382</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>644.1080300429513</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>644.1080300429513</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X40" t="n">
-        <v>644.1080300429513</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y40" t="n">
-        <v>523.8169520164281</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028587</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7602,19 +7602,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>899.2453219441537</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>644.5608337382669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>644.5608337382669</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X43" t="n">
-        <v>416.5712828402495</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y43" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>345.5451177528689</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>755.183133481126</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W46" t="n">
-        <v>755.183133481126</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X46" t="n">
-        <v>527.1935825831087</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y46" t="n">
-        <v>527.1935825831087</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M12" t="n">
-        <v>230.7151863772034</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>145.2351313103794</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,25 +9248,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>19.14409596996961</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M27" t="n">
-        <v>414.5002179180839</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>297.2466435761025</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.62661940943602</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>188.8856946302388</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.03744927814711</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>272.8719470256806</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4502327979504344</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.6759408880587</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>59.51901294097647</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>57.05185663131793</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>3.847734843217381</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>81.2298699930611</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>140.3375291694968</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>74.05453030416288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>16.65419390962555</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>75.2688311464434</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>82.3938331833846</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>93.64429916196887</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>99.49648610583681</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>112.0314843129587</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>48.84084321165253</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>70.01754808718297</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.1420986615188</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>783893.4803848272</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
         <v>606095.0425934483</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="I2" t="n">
         <v>606095.0425934483</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="L2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="M2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="N2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="N2" t="n">
-        <v>606095.0425934484</v>
-      </c>
       <c r="O2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26435,7 +26435,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687074</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26444,7 +26444,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26453,10 +26453,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202152.4534196587</v>
+        <v>-202152.4534196583</v>
       </c>
       <c r="C6" t="n">
+        <v>387815.4257948856</v>
+      </c>
+      <c r="D6" t="n">
         <v>387815.4257948857</v>
       </c>
-      <c r="D6" t="n">
-        <v>387815.425794886</v>
-      </c>
       <c r="E6" t="n">
-        <v>-33226.92741903524</v>
+        <v>-34201.51867875683</v>
       </c>
       <c r="F6" t="n">
-        <v>491933.1090578611</v>
+        <v>490958.5177981397</v>
       </c>
       <c r="G6" t="n">
-        <v>491933.1090578611</v>
+        <v>490958.5177981394</v>
       </c>
       <c r="H6" t="n">
-        <v>491933.1090578614</v>
+        <v>490958.5177981394</v>
       </c>
       <c r="I6" t="n">
-        <v>491933.109057861</v>
+        <v>490958.5177981394</v>
       </c>
       <c r="J6" t="n">
-        <v>315509.8898652686</v>
+        <v>314535.2986055467</v>
       </c>
       <c r="K6" t="n">
-        <v>491933.1090578614</v>
+        <v>490958.5177981396</v>
       </c>
       <c r="L6" t="n">
-        <v>491933.1090578613</v>
+        <v>490958.5177981396</v>
       </c>
       <c r="M6" t="n">
-        <v>357132.093824024</v>
+        <v>356157.5025643026</v>
       </c>
       <c r="N6" t="n">
-        <v>491933.1090578611</v>
+        <v>490958.5177981396</v>
       </c>
       <c r="O6" t="n">
-        <v>491933.1090578615</v>
+        <v>490958.5177981396</v>
       </c>
       <c r="P6" t="n">
-        <v>491933.1090578613</v>
+        <v>490958.5177981397</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26755,7 +26755,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>112.9202716085209</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>88.56638900509995</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,19 +27542,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>96.50703242634958</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>164.7836472640137</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.5620857608534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>27.10026567223719</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,22 +27782,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>75.30176537689294</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>172.8950154315538</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>65.83633145188423</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>55.56968306875774</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>75.30176537689285</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.48267778142511</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28277,7 +28277,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M12" t="n">
-        <v>541.1395634276697</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35573,7 +35573,7 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799323</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,22 +35734,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>455.6595083608457</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>268.4018009259939</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M27" t="n">
-        <v>724.9245949685502</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>630.4412169741155</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37399,13 +37399,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>138.6396521945101</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>438.1433995862631</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>555.2356492667888</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2791589.156539395</v>
+        <v>2796528.419388427</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.7627700121621</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>110.7928939935346</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>48.91401559658166</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>28.10115714452303</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>375.7791228457704</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>16.22208425994155</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>96.36163317610351</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>92.00803688215807</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>54.76523371349954</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>221.9323490168575</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>21.89027369222196</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>144.4797853959761</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113168</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>140.9568656338177</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>176.8688121773846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>32.8965767413795</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>86.18768101996842</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>185.0314030821033</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>170.4308309034741</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>118.9955446623092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1380.592961444913</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>994.8047088466685</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>583.818804057061</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>165.8549959552479</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>165.8549959552479</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1738.858660051663</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>699.7439769897445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117056</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F4" t="n">
         <v>380.6911546495019</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>699.7439769897445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.203741822952</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.241224882541</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>961.9755262757901</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>961.9755262757901</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>550.9896214861826</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822953</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.241224882541</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>961.9755262757906</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>576.1872736775463</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>165.2013688879387</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>151.2779648265296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>151.2779648265296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940986</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117055</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137951</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775516</v>
+        <v>563.7235867775526</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N12" t="n">
         <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>692.3809108364824</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>471.5883316929522</v>
       </c>
     </row>
     <row r="14">
@@ -5257,40 +5257,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5743,19 +5743,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6034,7 +6034,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>381.281078858296</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488384</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>644.1080300429516</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>354.6908600059909</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X25" t="n">
-        <v>208.7516828383384</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7516828383384</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805459</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6256,7 +6256,7 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6311,16 +6311,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6414,19 +6414,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6451,40 +6451,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>390.0157722697342</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>571.6642370999739</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6894,16 +6894,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>607.4268406407766</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>318.0096706038159</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="35">
@@ -6919,43 +6919,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7162,19 +7162,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7201,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7259,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W40" t="n">
-        <v>731.3177283550796</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X40" t="n">
-        <v>503.3281774570622</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y40" t="n">
-        <v>503.3281774570622</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7429,34 +7429,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
         <v>97.21709146028587</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>991.90339746128</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765186</v>
+        <v>737.2189092553931</v>
       </c>
       <c r="W43" t="n">
-        <v>496.665036439558</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="X43" t="n">
-        <v>268.6754855415407</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>554.8095831774258</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>265.3924131404652</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978208</v>
+        <v>29.47535963978322</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>125.0667464684378</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>64.30500338171984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,10 +24369,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>124.5436889543472</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>81.2298699930611</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>26.28995546481016</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>75.2688311464434</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>192.8130786476576</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.64429916196887</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>36.516157976286</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>115.8065214951033</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.84084321165253</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1420986615188</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>783893.4803848274</v>
+        <v>783893.4803848272</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="F2" t="n">
         <v>606095.0425934483</v>
       </c>
-      <c r="F2" t="n">
-        <v>606095.0425934487</v>
-      </c>
       <c r="G2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="I2" t="n">
         <v>606095.0425934483</v>
       </c>
       <c r="J2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="K2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="L2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="N2" t="n">
         <v>606095.0425934487</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934488</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934485</v>
       </c>
       <c r="O2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934484</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26444,7 +26444,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26456,7 +26456,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202152.4534196583</v>
+        <v>-202152.4534196584</v>
       </c>
       <c r="C6" t="n">
-        <v>387815.4257948856</v>
+        <v>387815.4257948857</v>
       </c>
       <c r="D6" t="n">
         <v>387815.4257948857</v>
       </c>
       <c r="E6" t="n">
-        <v>-34201.51867875683</v>
+        <v>-33324.3865450071</v>
       </c>
       <c r="F6" t="n">
-        <v>490958.5177981397</v>
+        <v>491835.6499318889</v>
       </c>
       <c r="G6" t="n">
-        <v>490958.5177981394</v>
+        <v>491835.6499318887</v>
       </c>
       <c r="H6" t="n">
-        <v>490958.5177981394</v>
+        <v>491835.6499318891</v>
       </c>
       <c r="I6" t="n">
-        <v>490958.5177981394</v>
+        <v>491835.6499318889</v>
       </c>
       <c r="J6" t="n">
-        <v>314535.2986055467</v>
+        <v>315412.430739296</v>
       </c>
       <c r="K6" t="n">
-        <v>490958.5177981396</v>
+        <v>491835.649931889</v>
       </c>
       <c r="L6" t="n">
-        <v>490958.5177981396</v>
+        <v>491835.649931889</v>
       </c>
       <c r="M6" t="n">
-        <v>356157.5025643026</v>
+        <v>357034.6346980518</v>
       </c>
       <c r="N6" t="n">
-        <v>490958.5177981396</v>
+        <v>491835.6499318892</v>
       </c>
       <c r="O6" t="n">
-        <v>490958.5177981396</v>
+        <v>491835.6499318891</v>
       </c>
       <c r="P6" t="n">
-        <v>490958.5177981397</v>
+        <v>491835.649931889</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>112.9202716085209</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.13842225132666</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>96.50703242634958</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>190.4834962075718</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6.954718817710159</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.5620857608534</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>75.30176537689294</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>55.56968306875774</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>75.30176537689285</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958064</v>
+        <v>278.7330645958074</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
